--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\IndustryConnect\git\ProjectMarsTestAutomationHybridFramework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F39262-492B-4458-97FE-6E8E2D47763A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Url</t>
   </si>
@@ -136,15 +137,35 @@
   </si>
   <si>
     <t>Mon</t>
+  </si>
+  <si>
+    <t>Selenium Wedriver basics</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>0600PM</t>
+  </si>
+  <si>
+    <t>0700PM</t>
+  </si>
+  <si>
+    <t>0800PM</t>
+  </si>
+  <si>
+    <t>0900PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,19 +759,19 @@
         <v>33</v>
       </c>
       <c r="H2" s="4">
-        <v>43567</v>
+        <v>44123</v>
       </c>
       <c r="I2" s="3">
-        <v>43597</v>
+        <v>44135</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.83333333333333337</v>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -769,4 +790,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C818DC-8047-440E-A26E-31A16A4FD552}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44123</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44135</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>